--- a/Gal Inconsistências 05.11.xlsx
+++ b/Gal Inconsistências 05.11.xlsx
@@ -298,7 +298,7 @@
     <t>DetectAvel</t>
   </si>
   <si>
-    <t>Nao tem Positivo dentro do periodo de 14 dias nem Suspeita no Assessor</t>
+    <t>Nao tem Negativo dentro do periodo de 14 dias nem Suspeita no Assessor</t>
   </si>
   <si>
     <t>Barretense negativo sem nenhum agravo</t>
